--- a/PSM_Baseline_2009/baseline_2009_with_scores.xlsx
+++ b/PSM_Baseline_2009/baseline_2009_with_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V260"/>
+  <dimension ref="A1:W260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>propensity_score</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>position_idx</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +623,9 @@
       <c r="V2" t="n">
         <v>0.3372157840526854</v>
       </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -692,6 +700,9 @@
       <c r="V3" t="n">
         <v>0.2108150252942169</v>
       </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -766,6 +777,9 @@
       <c r="V4" t="n">
         <v>0.9286971653149886</v>
       </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -839,6 +853,9 @@
       </c>
       <c r="V5" t="n">
         <v>0.3903493816162321</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -912,6 +929,9 @@
       <c r="V6" t="n">
         <v>0.6536313560149783</v>
       </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -985,6 +1005,9 @@
       </c>
       <c r="V7" t="n">
         <v>0.2683045322190713</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1058,6 +1081,9 @@
       <c r="V8" t="n">
         <v>0.2555267752280635</v>
       </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1132,6 +1158,9 @@
       <c r="V9" t="n">
         <v>0.5533520118388107</v>
       </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1206,6 +1235,9 @@
       <c r="V10" t="n">
         <v>0.4489063873749954</v>
       </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1280,6 +1312,9 @@
       <c r="V11" t="n">
         <v>0.4067164308511161</v>
       </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1353,6 +1388,9 @@
       </c>
       <c r="V12" t="n">
         <v>0.5515163635618066</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1426,6 +1464,9 @@
       <c r="V13" t="n">
         <v>0.1982714884734949</v>
       </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1500,6 +1541,9 @@
       <c r="V14" t="n">
         <v>0.2794383792813177</v>
       </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1573,6 +1617,9 @@
       </c>
       <c r="V15" t="n">
         <v>0.7393089254400819</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1646,6 +1693,9 @@
       <c r="V16" t="n">
         <v>0.366584009227007</v>
       </c>
+      <c r="W16" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1720,6 +1770,9 @@
       <c r="V17" t="n">
         <v>0.3749830464959341</v>
       </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1794,6 +1847,9 @@
       <c r="V18" t="n">
         <v>0.3444787711021388</v>
       </c>
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1868,6 +1924,9 @@
       <c r="V19" t="n">
         <v>0.2941248346836938</v>
       </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1942,6 +2001,9 @@
       <c r="V20" t="n">
         <v>0.3404108448933624</v>
       </c>
+      <c r="W20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2016,6 +2078,9 @@
       <c r="V21" t="n">
         <v>0.6993942920984383</v>
       </c>
+      <c r="W21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2090,6 +2155,9 @@
       <c r="V22" t="n">
         <v>0.396800806418016</v>
       </c>
+      <c r="W22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2164,6 +2232,9 @@
       <c r="V23" t="n">
         <v>0.5338459606616942</v>
       </c>
+      <c r="W23" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2237,6 +2308,9 @@
       </c>
       <c r="V24" t="n">
         <v>0.3400525437796569</v>
+      </c>
+      <c r="W24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -2310,6 +2384,9 @@
       <c r="V25" t="n">
         <v>0.206798479748627</v>
       </c>
+      <c r="W25" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2384,6 +2461,9 @@
       <c r="V26" t="n">
         <v>0.3688935243954446</v>
       </c>
+      <c r="W26" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2458,6 +2538,9 @@
       <c r="V27" t="n">
         <v>0.3004067189277725</v>
       </c>
+      <c r="W27" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2531,6 +2614,9 @@
       </c>
       <c r="V28" t="n">
         <v>0.7876072235385391</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -2604,6 +2690,9 @@
       <c r="V29" t="n">
         <v>0.2591481654256157</v>
       </c>
+      <c r="W29" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2678,6 +2767,9 @@
       <c r="V30" t="n">
         <v>0.2760951596049303</v>
       </c>
+      <c r="W30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2752,6 +2844,9 @@
       <c r="V31" t="n">
         <v>0.9440226190565485</v>
       </c>
+      <c r="W31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2826,6 +2921,9 @@
       <c r="V32" t="n">
         <v>0.3418683510297827</v>
       </c>
+      <c r="W32" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2900,6 +2998,9 @@
       <c r="V33" t="n">
         <v>0.3744226078495935</v>
       </c>
+      <c r="W33" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2974,6 +3075,9 @@
       <c r="V34" t="n">
         <v>0.8688621339882959</v>
       </c>
+      <c r="W34" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3048,6 +3152,9 @@
       <c r="V35" t="n">
         <v>0.7692416061015648</v>
       </c>
+      <c r="W35" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3122,6 +3229,9 @@
       <c r="V36" t="n">
         <v>0.3946284494643005</v>
       </c>
+      <c r="W36" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3196,6 +3306,9 @@
       <c r="V37" t="n">
         <v>0.7308277005530155</v>
       </c>
+      <c r="W37" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3270,6 +3383,9 @@
       <c r="V38" t="n">
         <v>0.6158377394040705</v>
       </c>
+      <c r="W38" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3344,6 +3460,9 @@
       <c r="V39" t="n">
         <v>0.3029614169412685</v>
       </c>
+      <c r="W39" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3418,6 +3537,9 @@
       <c r="V40" t="n">
         <v>0.7719840978158014</v>
       </c>
+      <c r="W40" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3492,6 +3614,9 @@
       <c r="V41" t="n">
         <v>0.3311917137629729</v>
       </c>
+      <c r="W41" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3566,6 +3691,9 @@
       <c r="V42" t="n">
         <v>0.6677516424083473</v>
       </c>
+      <c r="W42" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3640,6 +3768,9 @@
       <c r="V43" t="n">
         <v>0.7518902921676891</v>
       </c>
+      <c r="W43" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3714,6 +3845,9 @@
       <c r="V44" t="n">
         <v>0.3572608562289316</v>
       </c>
+      <c r="W44" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3787,6 +3921,9 @@
       </c>
       <c r="V45" t="n">
         <v>0.3307941052541307</v>
+      </c>
+      <c r="W45" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
@@ -3852,6 +3989,9 @@
       <c r="V46" t="n">
         <v>0.2610127145428138</v>
       </c>
+      <c r="W46" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3926,6 +4066,9 @@
       <c r="V47" t="n">
         <v>0.3929190624934578</v>
       </c>
+      <c r="W47" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4000,6 +4143,9 @@
       <c r="V48" t="n">
         <v>0.2934135715698871</v>
       </c>
+      <c r="W48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4074,6 +4220,9 @@
       <c r="V49" t="n">
         <v>0.2797557210005925</v>
       </c>
+      <c r="W49" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4148,6 +4297,9 @@
       <c r="V50" t="n">
         <v>0.5671387844791677</v>
       </c>
+      <c r="W50" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4222,6 +4374,9 @@
       <c r="V51" t="n">
         <v>0.2363369299786828</v>
       </c>
+      <c r="W51" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4295,6 +4450,9 @@
       </c>
       <c r="V52" t="n">
         <v>0.3464091847254682</v>
+      </c>
+      <c r="W52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -4360,6 +4518,9 @@
       <c r="V53" t="n">
         <v>0.3162710099971447</v>
       </c>
+      <c r="W53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4434,6 +4595,9 @@
       <c r="V54" t="n">
         <v>0.6788557948544641</v>
       </c>
+      <c r="W54" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4508,6 +4672,9 @@
       <c r="V55" t="n">
         <v>0.4987021429579389</v>
       </c>
+      <c r="W55" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4582,6 +4749,9 @@
       <c r="V56" t="n">
         <v>0.2968008810685808</v>
       </c>
+      <c r="W56" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4656,6 +4826,9 @@
       <c r="V57" t="n">
         <v>0.300132821157776</v>
       </c>
+      <c r="W57" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4730,6 +4903,9 @@
       <c r="V58" t="n">
         <v>0.6586061681786389</v>
       </c>
+      <c r="W58" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4804,6 +4980,9 @@
       <c r="V59" t="n">
         <v>0.2150041894313562</v>
       </c>
+      <c r="W59" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4878,6 +5057,9 @@
       <c r="V60" t="n">
         <v>0.2742650968555131</v>
       </c>
+      <c r="W60" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4952,6 +5134,9 @@
       <c r="V61" t="n">
         <v>0.2801259970639683</v>
       </c>
+      <c r="W61" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5025,6 +5210,9 @@
       </c>
       <c r="V62" t="n">
         <v>0.7139618770194672</v>
+      </c>
+      <c r="W62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -5098,6 +5286,9 @@
       <c r="V63" t="n">
         <v>0.3471913918634388</v>
       </c>
+      <c r="W63" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5172,6 +5363,9 @@
       <c r="V64" t="n">
         <v>0.8081552410757216</v>
       </c>
+      <c r="W64" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5246,6 +5440,9 @@
       <c r="V65" t="n">
         <v>0.8639005613929084</v>
       </c>
+      <c r="W65" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5320,6 +5517,9 @@
       <c r="V66" t="n">
         <v>0.3696091515338521</v>
       </c>
+      <c r="W66" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5394,6 +5594,9 @@
       <c r="V67" t="n">
         <v>0.3037396924116957</v>
       </c>
+      <c r="W67" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5468,6 +5671,9 @@
       <c r="V68" t="n">
         <v>0.3734950875685449</v>
       </c>
+      <c r="W68" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5542,6 +5748,9 @@
       <c r="V69" t="n">
         <v>0.8135067974822948</v>
       </c>
+      <c r="W69" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5616,6 +5825,9 @@
       <c r="V70" t="n">
         <v>0.3968271433568183</v>
       </c>
+      <c r="W70" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5690,6 +5902,9 @@
       <c r="V71" t="n">
         <v>0.3268509590667911</v>
       </c>
+      <c r="W71" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5763,6 +5978,9 @@
       </c>
       <c r="V72" t="n">
         <v>0.2893165458126807</v>
+      </c>
+      <c r="W72" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="73">
@@ -5836,6 +6054,9 @@
       <c r="V73" t="n">
         <v>0.3802933257230313</v>
       </c>
+      <c r="W73" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5910,6 +6131,9 @@
       <c r="V74" t="n">
         <v>0.3510342698904575</v>
       </c>
+      <c r="W74" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5984,6 +6208,9 @@
       <c r="V75" t="n">
         <v>0.3280300239388236</v>
       </c>
+      <c r="W75" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6058,6 +6285,9 @@
       <c r="V76" t="n">
         <v>0.5460965635744697</v>
       </c>
+      <c r="W76" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6132,6 +6362,9 @@
       <c r="V77" t="n">
         <v>0.3632941447274903</v>
       </c>
+      <c r="W77" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6206,6 +6439,9 @@
       <c r="V78" t="n">
         <v>0.3397121258099557</v>
       </c>
+      <c r="W78" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6280,6 +6516,9 @@
       <c r="V79" t="n">
         <v>0.3258670307896359</v>
       </c>
+      <c r="W79" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6354,6 +6593,9 @@
       <c r="V80" t="n">
         <v>0.3106144099697697</v>
       </c>
+      <c r="W80" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6428,6 +6670,9 @@
       <c r="V81" t="n">
         <v>0.2911098242135156</v>
       </c>
+      <c r="W81" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6501,6 +6746,9 @@
       </c>
       <c r="V82" t="n">
         <v>0.2163279575184935</v>
+      </c>
+      <c r="W82" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -6574,6 +6822,9 @@
       <c r="V83" t="n">
         <v>0.1684682275861899</v>
       </c>
+      <c r="W83" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6648,6 +6899,9 @@
       <c r="V84" t="n">
         <v>0.2518188741660627</v>
       </c>
+      <c r="W84" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6722,6 +6976,9 @@
       <c r="V85" t="n">
         <v>0.6470147858297163</v>
       </c>
+      <c r="W85" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6796,6 +7053,9 @@
       <c r="V86" t="n">
         <v>0.237786834627868</v>
       </c>
+      <c r="W86" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6870,6 +7130,9 @@
       <c r="V87" t="n">
         <v>0.317935001792137</v>
       </c>
+      <c r="W87" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6944,6 +7207,9 @@
       <c r="V88" t="n">
         <v>0.4843519102771636</v>
       </c>
+      <c r="W88" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7018,6 +7284,9 @@
       <c r="V89" t="n">
         <v>0.8748606672010434</v>
       </c>
+      <c r="W89" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7092,6 +7361,9 @@
       <c r="V90" t="n">
         <v>0.5456698756699716</v>
       </c>
+      <c r="W90" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7166,6 +7438,9 @@
       <c r="V91" t="n">
         <v>0.2469867564981052</v>
       </c>
+      <c r="W91" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7240,6 +7515,9 @@
       <c r="V92" t="n">
         <v>0.2475648330330311</v>
       </c>
+      <c r="W92" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7314,6 +7592,9 @@
       <c r="V93" t="n">
         <v>0.5070014074848035</v>
       </c>
+      <c r="W93" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7387,6 +7668,9 @@
       </c>
       <c r="V94" t="n">
         <v>0.2704431244615959</v>
+      </c>
+      <c r="W94" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="95">
@@ -7460,6 +7744,9 @@
       <c r="V95" t="n">
         <v>0.2498182115674224</v>
       </c>
+      <c r="W95" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7534,6 +7821,9 @@
       <c r="V96" t="n">
         <v>0.422802031762087</v>
       </c>
+      <c r="W96" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7608,6 +7898,9 @@
       <c r="V97" t="n">
         <v>0.3294607551282184</v>
       </c>
+      <c r="W97" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7682,6 +7975,9 @@
       <c r="V98" t="n">
         <v>0.4741844135783211</v>
       </c>
+      <c r="W98" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7756,6 +8052,9 @@
       <c r="V99" t="n">
         <v>0.5069388647930854</v>
       </c>
+      <c r="W99" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7830,6 +8129,9 @@
       <c r="V100" t="n">
         <v>0.3276214927648414</v>
       </c>
+      <c r="W100" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7904,6 +8206,9 @@
       <c r="V101" t="n">
         <v>0.5026705326446514</v>
       </c>
+      <c r="W101" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7978,6 +8283,9 @@
       <c r="V102" t="n">
         <v>0.8784030574537277</v>
       </c>
+      <c r="W102" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8051,6 +8359,9 @@
       </c>
       <c r="V103" t="n">
         <v>0.4855739462706416</v>
+      </c>
+      <c r="W103" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="104">
@@ -8124,6 +8435,9 @@
       <c r="V104" t="n">
         <v>0.4094087187805507</v>
       </c>
+      <c r="W104" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8198,6 +8512,9 @@
       <c r="V105" t="n">
         <v>0.3129673505490501</v>
       </c>
+      <c r="W105" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8272,6 +8589,9 @@
       <c r="V106" t="n">
         <v>0.3635233716507856</v>
       </c>
+      <c r="W106" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8346,6 +8666,9 @@
       <c r="V107" t="n">
         <v>0.33037197352227</v>
       </c>
+      <c r="W107" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8420,6 +8743,9 @@
       <c r="V108" t="n">
         <v>0.3598900548399331</v>
       </c>
+      <c r="W108" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8494,6 +8820,9 @@
       <c r="V109" t="n">
         <v>0.3802309227105795</v>
       </c>
+      <c r="W109" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8568,6 +8897,9 @@
       <c r="V110" t="n">
         <v>0.2139097328454767</v>
       </c>
+      <c r="W110" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8642,6 +8974,9 @@
       <c r="V111" t="n">
         <v>0.7142552408737883</v>
       </c>
+      <c r="W111" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8716,6 +9051,9 @@
       <c r="V112" t="n">
         <v>0.3991189583751535</v>
       </c>
+      <c r="W112" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8790,6 +9128,9 @@
       <c r="V113" t="n">
         <v>0.8781076420233809</v>
       </c>
+      <c r="W113" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8864,6 +9205,9 @@
       <c r="V114" t="n">
         <v>0.4335183300758816</v>
       </c>
+      <c r="W114" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8937,6 +9281,9 @@
       </c>
       <c r="V115" t="n">
         <v>0.4791286860491399</v>
+      </c>
+      <c r="W115" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="116">
@@ -9010,6 +9357,9 @@
       <c r="V116" t="n">
         <v>0.2399176628197406</v>
       </c>
+      <c r="W116" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9084,6 +9434,9 @@
       <c r="V117" t="n">
         <v>0.2466616730871689</v>
       </c>
+      <c r="W117" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9158,6 +9511,9 @@
       <c r="V118" t="n">
         <v>0.3399392581635095</v>
       </c>
+      <c r="W118" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9231,6 +9587,9 @@
       </c>
       <c r="V119" t="n">
         <v>0.3260832820377199</v>
+      </c>
+      <c r="W119" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="120">
@@ -9304,6 +9663,9 @@
       <c r="V120" t="n">
         <v>0.2037746151165172</v>
       </c>
+      <c r="W120" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9378,6 +9740,9 @@
       <c r="V121" t="n">
         <v>0.8975097457084064</v>
       </c>
+      <c r="W121" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9452,6 +9817,9 @@
       <c r="V122" t="n">
         <v>0.1840523018362061</v>
       </c>
+      <c r="W122" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9526,6 +9894,9 @@
       <c r="V123" t="n">
         <v>0.2465444917400497</v>
       </c>
+      <c r="W123" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9600,6 +9971,9 @@
       <c r="V124" t="n">
         <v>0.4493932555403046</v>
       </c>
+      <c r="W124" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9674,6 +10048,9 @@
       <c r="V125" t="n">
         <v>0.3374299510344461</v>
       </c>
+      <c r="W125" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9748,6 +10125,9 @@
       <c r="V126" t="n">
         <v>0.4298561476127987</v>
       </c>
+      <c r="W126" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9822,6 +10202,9 @@
       <c r="V127" t="n">
         <v>0.3832900452783042</v>
       </c>
+      <c r="W127" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9896,6 +10279,9 @@
       <c r="V128" t="n">
         <v>0.2403776538365788</v>
       </c>
+      <c r="W128" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9970,6 +10356,9 @@
       <c r="V129" t="n">
         <v>0.2750213824402036</v>
       </c>
+      <c r="W129" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10044,6 +10433,9 @@
       <c r="V130" t="n">
         <v>0.2983619725469769</v>
       </c>
+      <c r="W130" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10117,6 +10509,9 @@
       </c>
       <c r="V131" t="n">
         <v>0.8114279781624812</v>
+      </c>
+      <c r="W131" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="132">
@@ -10190,6 +10585,9 @@
       <c r="V132" t="n">
         <v>0.2470489491545993</v>
       </c>
+      <c r="W132" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10262,6 +10660,9 @@
       <c r="V133" t="n">
         <v>0.3458807338427681</v>
       </c>
+      <c r="W133" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10336,6 +10737,9 @@
       <c r="V134" t="n">
         <v>0.4026831095775248</v>
       </c>
+      <c r="W134" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10410,6 +10814,9 @@
       <c r="V135" t="n">
         <v>0.5150531468699896</v>
       </c>
+      <c r="W135" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10484,6 +10891,9 @@
       <c r="V136" t="n">
         <v>0.1799559814692968</v>
       </c>
+      <c r="W136" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10558,6 +10968,9 @@
       <c r="V137" t="n">
         <v>0.5277352574825608</v>
       </c>
+      <c r="W137" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10632,6 +11045,9 @@
       <c r="V138" t="n">
         <v>0.2910784167309192</v>
       </c>
+      <c r="W138" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10706,6 +11122,9 @@
       <c r="V139" t="n">
         <v>0.7219014695617942</v>
       </c>
+      <c r="W139" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10780,6 +11199,9 @@
       <c r="V140" t="n">
         <v>0.3417224887107168</v>
       </c>
+      <c r="W140" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10854,6 +11276,9 @@
       <c r="V141" t="n">
         <v>0.2888776854651512</v>
       </c>
+      <c r="W141" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10928,6 +11353,9 @@
       <c r="V142" t="n">
         <v>0.329600003508012</v>
       </c>
+      <c r="W142" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11002,6 +11430,9 @@
       <c r="V143" t="n">
         <v>0.5201683682547431</v>
       </c>
+      <c r="W143" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11076,6 +11507,9 @@
       <c r="V144" t="n">
         <v>0.3064564257882494</v>
       </c>
+      <c r="W144" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11150,6 +11584,9 @@
       <c r="V145" t="n">
         <v>0.4862525741015287</v>
       </c>
+      <c r="W145" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11224,6 +11661,9 @@
       <c r="V146" t="n">
         <v>0.3396944877601816</v>
       </c>
+      <c r="W146" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11298,6 +11738,9 @@
       <c r="V147" t="n">
         <v>0.3555706074378322</v>
       </c>
+      <c r="W147" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11372,6 +11815,9 @@
       <c r="V148" t="n">
         <v>0.8118768018024923</v>
       </c>
+      <c r="W148" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11446,6 +11892,9 @@
       <c r="V149" t="n">
         <v>0.4017425739657093</v>
       </c>
+      <c r="W149" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11520,6 +11969,9 @@
       <c r="V150" t="n">
         <v>0.8364825417733057</v>
       </c>
+      <c r="W150" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11594,6 +12046,9 @@
       <c r="V151" t="n">
         <v>0.4502341272652252</v>
       </c>
+      <c r="W151" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11668,6 +12123,9 @@
       <c r="V152" t="n">
         <v>0.3672560652568806</v>
       </c>
+      <c r="W152" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11742,6 +12200,9 @@
       <c r="V153" t="n">
         <v>0.4547403982043052</v>
       </c>
+      <c r="W153" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11816,6 +12277,9 @@
       <c r="V154" t="n">
         <v>0.3542476867401322</v>
       </c>
+      <c r="W154" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11890,6 +12354,9 @@
       <c r="V155" t="n">
         <v>0.857449414150884</v>
       </c>
+      <c r="W155" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11964,6 +12431,9 @@
       <c r="V156" t="n">
         <v>0.3153568070408306</v>
       </c>
+      <c r="W156" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12037,6 +12507,9 @@
       </c>
       <c r="V157" t="n">
         <v>0.8019459246980869</v>
+      </c>
+      <c r="W157" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="158">
@@ -12110,6 +12583,9 @@
       <c r="V158" t="n">
         <v>0.3921747431597628</v>
       </c>
+      <c r="W158" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12184,6 +12660,9 @@
       <c r="V159" t="n">
         <v>0.5425981479444779</v>
       </c>
+      <c r="W159" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12258,6 +12737,9 @@
       <c r="V160" t="n">
         <v>0.3267721624614469</v>
       </c>
+      <c r="W160" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12332,6 +12814,9 @@
       <c r="V161" t="n">
         <v>0.430648498867271</v>
       </c>
+      <c r="W161" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12406,6 +12891,9 @@
       <c r="V162" t="n">
         <v>0.3591424580403283</v>
       </c>
+      <c r="W162" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12479,6 +12967,9 @@
       </c>
       <c r="V163" t="n">
         <v>0.3237494359282243</v>
+      </c>
+      <c r="W163" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="164">
@@ -12552,6 +13043,9 @@
       <c r="V164" t="n">
         <v>0.3321090442336372</v>
       </c>
+      <c r="W164" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12626,6 +13120,9 @@
       <c r="V165" t="n">
         <v>0.5306047781070196</v>
       </c>
+      <c r="W165" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12700,6 +13197,9 @@
       <c r="V166" t="n">
         <v>0.320899097998107</v>
       </c>
+      <c r="W166" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12774,6 +13274,9 @@
       <c r="V167" t="n">
         <v>0.2200904885801834</v>
       </c>
+      <c r="W167" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12848,6 +13351,9 @@
       <c r="V168" t="n">
         <v>0.4948815884023485</v>
       </c>
+      <c r="W168" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12922,6 +13428,9 @@
       <c r="V169" t="n">
         <v>0.2242227129884232</v>
       </c>
+      <c r="W169" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12996,6 +13505,9 @@
       <c r="V170" t="n">
         <v>0.2700013468417655</v>
       </c>
+      <c r="W170" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13070,6 +13582,9 @@
       <c r="V171" t="n">
         <v>0.6577227537898388</v>
       </c>
+      <c r="W171" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13143,6 +13658,9 @@
       </c>
       <c r="V172" t="n">
         <v>0.2273783995316309</v>
+      </c>
+      <c r="W172" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="173">
@@ -13216,6 +13734,9 @@
       <c r="V173" t="n">
         <v>0.2723199125488299</v>
       </c>
+      <c r="W173" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13289,6 +13810,9 @@
       </c>
       <c r="V174" t="n">
         <v>0.2707613512914639</v>
+      </c>
+      <c r="W174" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="175">
@@ -13362,6 +13886,9 @@
       <c r="V175" t="n">
         <v>0.3192624724555599</v>
       </c>
+      <c r="W175" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13436,6 +13963,9 @@
       <c r="V176" t="n">
         <v>0.2815275908003598</v>
       </c>
+      <c r="W176" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13510,6 +14040,9 @@
       <c r="V177" t="n">
         <v>0.4095509973223023</v>
       </c>
+      <c r="W177" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13584,6 +14117,9 @@
       <c r="V178" t="n">
         <v>0.352757536527338</v>
       </c>
+      <c r="W178" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13658,6 +14194,9 @@
       <c r="V179" t="n">
         <v>0.3100282554813795</v>
       </c>
+      <c r="W179" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13732,6 +14271,9 @@
       <c r="V180" t="n">
         <v>0.271707546957571</v>
       </c>
+      <c r="W180" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13806,6 +14348,9 @@
       <c r="V181" t="n">
         <v>0.7026628682023933</v>
       </c>
+      <c r="W181" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13880,6 +14425,9 @@
       <c r="V182" t="n">
         <v>0.7743299648927418</v>
       </c>
+      <c r="W182" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13954,6 +14502,9 @@
       <c r="V183" t="n">
         <v>0.5159434152330937</v>
       </c>
+      <c r="W183" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14027,6 +14578,9 @@
       </c>
       <c r="V184" t="n">
         <v>0.7325171811805359</v>
+      </c>
+      <c r="W184" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="185">
@@ -14100,6 +14654,9 @@
       <c r="V185" t="n">
         <v>0.2886660129461602</v>
       </c>
+      <c r="W185" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14174,6 +14731,9 @@
       <c r="V186" t="n">
         <v>0.5711393372219974</v>
       </c>
+      <c r="W186" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14248,6 +14808,9 @@
       <c r="V187" t="n">
         <v>0.3141172381777269</v>
       </c>
+      <c r="W187" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14322,6 +14885,9 @@
       <c r="V188" t="n">
         <v>0.4021921132568441</v>
       </c>
+      <c r="W188" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14396,6 +14962,9 @@
       <c r="V189" t="n">
         <v>0.2473676098140855</v>
       </c>
+      <c r="W189" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14470,6 +15039,9 @@
       <c r="V190" t="n">
         <v>0.6093166001461026</v>
       </c>
+      <c r="W190" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14544,6 +15116,9 @@
       <c r="V191" t="n">
         <v>0.4582870652784278</v>
       </c>
+      <c r="W191" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14618,6 +15193,9 @@
       <c r="V192" t="n">
         <v>0.7436322675384714</v>
       </c>
+      <c r="W192" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14692,6 +15270,9 @@
       <c r="V193" t="n">
         <v>0.2460955507485009</v>
       </c>
+      <c r="W193" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14766,6 +15347,9 @@
       <c r="V194" t="n">
         <v>0.4013357291342431</v>
       </c>
+      <c r="W194" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14840,6 +15424,9 @@
       <c r="V195" t="n">
         <v>0.278900282285638</v>
       </c>
+      <c r="W195" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14914,6 +15501,9 @@
       <c r="V196" t="n">
         <v>0.3471694833219858</v>
       </c>
+      <c r="W196" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14988,6 +15578,9 @@
       <c r="V197" t="n">
         <v>0.378221307100265</v>
       </c>
+      <c r="W197" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15062,6 +15655,9 @@
       <c r="V198" t="n">
         <v>0.1952077343689636</v>
       </c>
+      <c r="W198" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15136,6 +15732,9 @@
       <c r="V199" t="n">
         <v>0.3556397310443001</v>
       </c>
+      <c r="W199" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15210,6 +15809,9 @@
       <c r="V200" t="n">
         <v>0.4629818668255907</v>
       </c>
+      <c r="W200" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15284,6 +15886,9 @@
       <c r="V201" t="n">
         <v>0.3389492790713001</v>
       </c>
+      <c r="W201" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15357,6 +15962,9 @@
       </c>
       <c r="V202" t="n">
         <v>0.4520364374802816</v>
+      </c>
+      <c r="W202" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="203">
@@ -15430,6 +16038,9 @@
       <c r="V203" t="n">
         <v>0.34549188727045</v>
       </c>
+      <c r="W203" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15504,6 +16115,9 @@
       <c r="V204" t="n">
         <v>0.7384585097506955</v>
       </c>
+      <c r="W204" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15578,6 +16192,9 @@
       <c r="V205" t="n">
         <v>0.8249269034397498</v>
       </c>
+      <c r="W205" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15652,6 +16269,9 @@
       <c r="V206" t="n">
         <v>0.2343804987593957</v>
       </c>
+      <c r="W206" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15726,6 +16346,9 @@
       <c r="V207" t="n">
         <v>0.2763766999444174</v>
       </c>
+      <c r="W207" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15800,6 +16423,9 @@
       <c r="V208" t="n">
         <v>0.7692704174930409</v>
       </c>
+      <c r="W208" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15874,6 +16500,9 @@
       <c r="V209" t="n">
         <v>0.1917655551773058</v>
       </c>
+      <c r="W209" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15948,6 +16577,9 @@
       <c r="V210" t="n">
         <v>0.2485976515178313</v>
       </c>
+      <c r="W210" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16022,6 +16654,9 @@
       <c r="V211" t="n">
         <v>0.4420149492588394</v>
       </c>
+      <c r="W211" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -16096,6 +16731,9 @@
       <c r="V212" t="n">
         <v>0.2518899795490099</v>
       </c>
+      <c r="W212" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -16169,6 +16807,9 @@
       </c>
       <c r="V213" t="n">
         <v>0.1888562920552934</v>
+      </c>
+      <c r="W213" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="214">
@@ -16242,6 +16883,9 @@
       <c r="V214" t="n">
         <v>0.3941327138121095</v>
       </c>
+      <c r="W214" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -16316,6 +16960,9 @@
       <c r="V215" t="n">
         <v>0.3904990849791883</v>
       </c>
+      <c r="W215" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -16390,6 +17037,9 @@
       <c r="V216" t="n">
         <v>0.4248917867563472</v>
       </c>
+      <c r="W216" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16464,6 +17114,9 @@
       <c r="V217" t="n">
         <v>0.315436339792919</v>
       </c>
+      <c r="W217" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16538,6 +17191,9 @@
       <c r="V218" t="n">
         <v>0.1730591188377401</v>
       </c>
+      <c r="W218" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16612,6 +17268,9 @@
       <c r="V219" t="n">
         <v>0.3010969238124008</v>
       </c>
+      <c r="W219" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16686,6 +17345,9 @@
       <c r="V220" t="n">
         <v>0.3834275604013089</v>
       </c>
+      <c r="W220" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16760,6 +17422,9 @@
       <c r="V221" t="n">
         <v>0.4772744139008011</v>
       </c>
+      <c r="W221" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16834,6 +17499,9 @@
       <c r="V222" t="n">
         <v>0.3979364407149237</v>
       </c>
+      <c r="W222" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16908,6 +17576,9 @@
       <c r="V223" t="n">
         <v>0.395495629504684</v>
       </c>
+      <c r="W223" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -16982,6 +17653,9 @@
       <c r="V224" t="n">
         <v>0.7703025975059929</v>
       </c>
+      <c r="W224" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17056,6 +17730,9 @@
       <c r="V225" t="n">
         <v>0.2891688557201928</v>
       </c>
+      <c r="W225" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -17130,6 +17807,9 @@
       <c r="V226" t="n">
         <v>0.2951516901863511</v>
       </c>
+      <c r="W226" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -17204,6 +17884,9 @@
       <c r="V227" t="n">
         <v>0.1404485015168029</v>
       </c>
+      <c r="W227" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -17278,6 +17961,9 @@
       <c r="V228" t="n">
         <v>0.7958806028525518</v>
       </c>
+      <c r="W228" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -17352,6 +18038,9 @@
       <c r="V229" t="n">
         <v>0.7129322567887731</v>
       </c>
+      <c r="W229" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -17426,6 +18115,9 @@
       <c r="V230" t="n">
         <v>0.224303895177954</v>
       </c>
+      <c r="W230" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17499,6 +18191,9 @@
       </c>
       <c r="V231" t="n">
         <v>0.3038005837668062</v>
+      </c>
+      <c r="W231" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="232">
@@ -17570,6 +18265,9 @@
       <c r="V232" t="n">
         <v>0.3336304269320843</v>
       </c>
+      <c r="W232" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17644,6 +18342,9 @@
       <c r="V233" t="n">
         <v>0.348200921412003</v>
       </c>
+      <c r="W233" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17718,6 +18419,9 @@
       <c r="V234" t="n">
         <v>0.6790626936790332</v>
       </c>
+      <c r="W234" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -17792,6 +18496,9 @@
       <c r="V235" t="n">
         <v>0.4919685540419672</v>
       </c>
+      <c r="W235" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -17866,6 +18573,9 @@
       <c r="V236" t="n">
         <v>0.7143904623122111</v>
       </c>
+      <c r="W236" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -17940,6 +18650,9 @@
       <c r="V237" t="n">
         <v>0.7148452208235306</v>
       </c>
+      <c r="W237" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18014,6 +18727,9 @@
       <c r="V238" t="n">
         <v>0.4201636385570213</v>
       </c>
+      <c r="W238" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -18088,6 +18804,9 @@
       <c r="V239" t="n">
         <v>0.4273639625445712</v>
       </c>
+      <c r="W239" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -18161,6 +18880,9 @@
       </c>
       <c r="V240" t="n">
         <v>0.4457270232205958</v>
+      </c>
+      <c r="W240" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="241">
@@ -18234,6 +18956,9 @@
       <c r="V241" t="n">
         <v>0.2098152153384491</v>
       </c>
+      <c r="W241" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -18308,6 +19033,9 @@
       <c r="V242" t="n">
         <v>0.2707009517097939</v>
       </c>
+      <c r="W242" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -18382,6 +19110,9 @@
       <c r="V243" t="n">
         <v>0.4658919210075554</v>
       </c>
+      <c r="W243" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -18455,6 +19186,9 @@
       </c>
       <c r="V244" t="n">
         <v>0.2447124062169924</v>
+      </c>
+      <c r="W244" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="245">
@@ -18528,6 +19262,9 @@
       <c r="V245" t="n">
         <v>0.387006200712654</v>
       </c>
+      <c r="W245" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -18602,6 +19339,9 @@
       <c r="V246" t="n">
         <v>0.6895928665154396</v>
       </c>
+      <c r="W246" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -18676,6 +19416,9 @@
       <c r="V247" t="n">
         <v>0.4577324472993554</v>
       </c>
+      <c r="W247" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -18750,6 +19493,9 @@
       <c r="V248" t="n">
         <v>0.4013618096010885</v>
       </c>
+      <c r="W248" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -18824,6 +19570,9 @@
       <c r="V249" t="n">
         <v>0.3537878994793068</v>
       </c>
+      <c r="W249" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -18898,6 +19647,9 @@
       <c r="V250" t="n">
         <v>0.3150301632049562</v>
       </c>
+      <c r="W250" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -18972,6 +19724,9 @@
       <c r="V251" t="n">
         <v>0.3629463046445699</v>
       </c>
+      <c r="W251" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -19046,6 +19801,9 @@
       <c r="V252" t="n">
         <v>0.2278849838426676</v>
       </c>
+      <c r="W252" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19120,6 +19878,9 @@
       <c r="V253" t="n">
         <v>0.3838571160573779</v>
       </c>
+      <c r="W253" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -19194,6 +19955,9 @@
       <c r="V254" t="n">
         <v>0.2632858504285793</v>
       </c>
+      <c r="W254" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -19268,6 +20032,9 @@
       <c r="V255" t="n">
         <v>0.3344647763866768</v>
       </c>
+      <c r="W255" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -19342,6 +20109,9 @@
       <c r="V256" t="n">
         <v>0.3680159418097864</v>
       </c>
+      <c r="W256" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -19416,6 +20186,9 @@
       <c r="V257" t="n">
         <v>0.3480392141857491</v>
       </c>
+      <c r="W257" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -19490,6 +20263,9 @@
       <c r="V258" t="n">
         <v>0.3466435796851583</v>
       </c>
+      <c r="W258" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -19564,6 +20340,9 @@
       <c r="V259" t="n">
         <v>0.3714802340299866</v>
       </c>
+      <c r="W259" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -19637,6 +20416,9 @@
       </c>
       <c r="V260" t="n">
         <v>0.3351371877415568</v>
+      </c>
+      <c r="W260" t="n">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
